--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.27532027432879</v>
+        <v>90.01894782891856</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.78554941073425</v>
+        <v>123.1678957751698</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.73934960735119</v>
+        <v>111.4129246696473</v>
       </c>
       <c r="AD2" t="n">
-        <v>69275.3202743288</v>
+        <v>90018.94782891855</v>
       </c>
       <c r="AE2" t="n">
-        <v>94785.54941073425</v>
+        <v>123167.8957751698</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.092025558747211e-06</v>
+        <v>1.198942108642837e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.856944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>85739.34960735119</v>
+        <v>111412.9246696473</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.13478345897255</v>
+        <v>88.8784110135623</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.22501662303152</v>
+        <v>121.607362987467</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.32775187868478</v>
+        <v>110.0013269409809</v>
       </c>
       <c r="AD3" t="n">
-        <v>68134.78345897255</v>
+        <v>88878.41101356231</v>
       </c>
       <c r="AE3" t="n">
-        <v>93225.01662303152</v>
+        <v>121607.362987467</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.20610718105643e-06</v>
+        <v>1.218228172923881e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.811111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>84327.75187868478</v>
+        <v>110001.3269409809</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.01809675234669</v>
+        <v>89.11389158549508</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.43360484005764</v>
+        <v>121.9295578946549</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.42099413254252</v>
+        <v>110.2927720184303</v>
       </c>
       <c r="AD2" t="n">
-        <v>69018.0967523467</v>
+        <v>89113.89158549508</v>
       </c>
       <c r="AE2" t="n">
-        <v>94433.60484005764</v>
+        <v>121929.5578946549</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.987986645056282e-06</v>
+        <v>1.210173243232043e-05</v>
       </c>
       <c r="AG2" t="n">
         <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>85420.99413254252</v>
+        <v>110292.7720184303</v>
       </c>
     </row>
   </sheetData>
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.5118694445147</v>
+        <v>125.6573493239246</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.1024828628519</v>
+        <v>171.9299289559224</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.0632283580927</v>
+        <v>155.5211778415878</v>
       </c>
       <c r="AD2" t="n">
-        <v>107511.8694445147</v>
+        <v>125657.3493239246</v>
       </c>
       <c r="AE2" t="n">
-        <v>147102.4828628519</v>
+        <v>171929.9289559224</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.39973319060682e-06</v>
+        <v>1.021745716369901e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.331944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>133063.2283580927</v>
+        <v>155521.1778415878</v>
       </c>
     </row>
   </sheetData>
@@ -2549,28 +2549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.47939714214701</v>
+        <v>105.4726587000917</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.3249263715759</v>
+        <v>144.312344758705</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.0321614687806</v>
+        <v>130.5393771186212</v>
       </c>
       <c r="AD2" t="n">
-        <v>86479.39714214701</v>
+        <v>105472.6587000917</v>
       </c>
       <c r="AE2" t="n">
-        <v>118324.9263715759</v>
+        <v>144312.344758705</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.19358769219575e-06</v>
+        <v>1.128337168413574e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.6125</v>
       </c>
       <c r="AH2" t="n">
-        <v>107032.1614687806</v>
+        <v>130539.3771186212</v>
       </c>
     </row>
   </sheetData>
@@ -2846,28 +2846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.2134796071715</v>
+        <v>161.4508373077809</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.0050479961682</v>
+        <v>220.9041583126527</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.3484258716816</v>
+        <v>199.82137548429</v>
       </c>
       <c r="AD2" t="n">
-        <v>135213.4796071715</v>
+        <v>161450.8373077809</v>
       </c>
       <c r="AE2" t="n">
-        <v>185005.0479961682</v>
+        <v>220904.1583126527</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.572336315249863e-06</v>
+        <v>8.960305968990616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>167348.4258716816</v>
+        <v>199821.37548429</v>
       </c>
     </row>
   </sheetData>
@@ -3143,28 +3143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.95670279463604</v>
+        <v>89.22277492009633</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.3496029186077</v>
+        <v>122.07853687665</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.34500923657832</v>
+        <v>110.4275326554771</v>
       </c>
       <c r="AD2" t="n">
-        <v>68956.70279463605</v>
+        <v>89222.77492009633</v>
       </c>
       <c r="AE2" t="n">
-        <v>94349.60291860771</v>
+        <v>122078.53687665</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.029905878314302e-06</v>
+        <v>1.209482095265241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.955555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>85345.00923657832</v>
+        <v>110427.5326554771</v>
       </c>
     </row>
     <row r="3">
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.76324732225662</v>
+        <v>89.0293194477169</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.08490860664519</v>
+        <v>121.8138425646875</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.10557697824864</v>
+        <v>110.1881003971474</v>
       </c>
       <c r="AD3" t="n">
-        <v>68763.24732225662</v>
+        <v>89029.3194477169</v>
       </c>
       <c r="AE3" t="n">
-        <v>94084.90860664519</v>
+        <v>121813.8425646875</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.063556819141056e-06</v>
+        <v>1.215271676395245e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.940277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>85105.57697824863</v>
+        <v>110188.1003971474</v>
       </c>
     </row>
   </sheetData>
@@ -3546,28 +3546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.2061220817576</v>
+        <v>187.9732971845005</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.9375722612197</v>
+        <v>257.1933580043113</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.7561618560116</v>
+        <v>232.6471848895999</v>
       </c>
       <c r="AD2" t="n">
-        <v>162206.1220817576</v>
+        <v>187973.2971845005</v>
       </c>
       <c r="AE2" t="n">
-        <v>221937.5722612197</v>
+        <v>257193.3580043113</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.022007130799745e-06</v>
+        <v>8.062758329541562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>200756.1618560116</v>
+        <v>232647.1848895999</v>
       </c>
     </row>
   </sheetData>
@@ -3843,28 +3843,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.19291629684415</v>
+        <v>91.00725754971002</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.0917300559613</v>
+        <v>124.5201447363037</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.4892912576712</v>
+        <v>112.6361168878243</v>
       </c>
       <c r="AD2" t="n">
-        <v>81192.91629684415</v>
+        <v>91007.25754971002</v>
       </c>
       <c r="AE2" t="n">
-        <v>111091.7300559613</v>
+        <v>124520.1447363037</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.702069335790709e-06</v>
+        <v>1.186986280368041e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>100489.2912576712</v>
+        <v>112636.1168878243</v>
       </c>
     </row>
   </sheetData>
@@ -4140,28 +4140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.15986477674713</v>
+        <v>90.16214597912368</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.6782633911487</v>
+        <v>123.3638258017369</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.21072386753498</v>
+        <v>111.5901554094684</v>
       </c>
       <c r="AD2" t="n">
-        <v>80159.86477674713</v>
+        <v>90162.14597912368</v>
       </c>
       <c r="AE2" t="n">
-        <v>109678.2633911487</v>
+        <v>123363.8258017369</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.869409875698071e-06</v>
+        <v>1.197965099181268e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.080555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>99210.72386753498</v>
+        <v>111590.1554094684</v>
       </c>
     </row>
     <row r="3">
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.0392355764003</v>
+        <v>90.04151677877685</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.5132131974495</v>
+        <v>123.1987756080377</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.06142583267301</v>
+        <v>111.4408573746065</v>
       </c>
       <c r="AD3" t="n">
-        <v>80039.2355764003</v>
+        <v>90041.51677877686</v>
       </c>
       <c r="AE3" t="n">
-        <v>109513.2131974495</v>
+        <v>123198.7756080377</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.897442065033366e-06</v>
+        <v>1.202853668226497e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.068055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>99061.42583267301</v>
+        <v>111440.8573746065</v>
       </c>
     </row>
   </sheetData>
@@ -4543,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.80157460656456</v>
+        <v>89.39108439969138</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.13734968791573</v>
+        <v>122.308825331922</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.15301315632425</v>
+        <v>110.6358427037899</v>
       </c>
       <c r="AD2" t="n">
-        <v>68801.57460656455</v>
+        <v>89391.08439969138</v>
       </c>
       <c r="AE2" t="n">
-        <v>94137.34968791573</v>
+        <v>122308.825331922</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.105192478136329e-06</v>
+        <v>1.207835630640389e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>85153.01315632425</v>
+        <v>110635.8427037899</v>
       </c>
     </row>
     <row r="3">
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.12513238172323</v>
+        <v>88.71464217485004</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.21181159336352</v>
+        <v>121.3832872373698</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.31580711851493</v>
+        <v>109.7986366659806</v>
       </c>
       <c r="AD3" t="n">
-        <v>68125.13238172323</v>
+        <v>88714.64217485004</v>
       </c>
       <c r="AE3" t="n">
-        <v>93211.81159336353</v>
+        <v>121383.2872373698</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.179305997093668e-06</v>
+        <v>1.220434437665571e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.844444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>84315.80711851493</v>
+        <v>109798.6366659806</v>
       </c>
     </row>
   </sheetData>
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.2630294026868</v>
+        <v>103.3087299244023</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.2923942512042</v>
+        <v>141.3515619420084</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.2890499577907</v>
+        <v>127.8611672584644</v>
       </c>
       <c r="AD2" t="n">
-        <v>84263.02940268679</v>
+        <v>103308.7299244023</v>
       </c>
       <c r="AE2" t="n">
-        <v>115292.3942512042</v>
+        <v>141351.5619420084</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.387473663419973e-06</v>
+        <v>1.151812654654644e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.459722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>104289.0499577907</v>
+        <v>127861.1672584644</v>
       </c>
     </row>
   </sheetData>
@@ -5243,28 +5243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.5125158362976</v>
+        <v>120.9307054892293</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.2621467001776</v>
+        <v>165.4627263364864</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.8757242783097</v>
+        <v>149.6711959633729</v>
       </c>
       <c r="AD2" t="n">
-        <v>102512.5158362976</v>
+        <v>120930.7054892293</v>
       </c>
       <c r="AE2" t="n">
-        <v>140262.1467001776</v>
+        <v>165462.7263364864</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.704910785552281e-06</v>
+        <v>1.064353999253764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.034722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>126875.7242783097</v>
+        <v>149671.1959633729</v>
       </c>
     </row>
   </sheetData>
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.9882901375991</v>
+        <v>141.8034172225052</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.3320514915271</v>
+        <v>194.0216913689923</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.3165013141401</v>
+        <v>175.5045334559447</v>
       </c>
       <c r="AD2" t="n">
-        <v>114988.2901375991</v>
+        <v>141803.4172225052</v>
       </c>
       <c r="AE2" t="n">
-        <v>157332.0514915271</v>
+        <v>194021.6913689923</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.024458660276304e-06</v>
+        <v>9.662220328765478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.738888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>142316.5013141401</v>
+        <v>175504.5334559447</v>
       </c>
     </row>
   </sheetData>
@@ -8658,28 +8658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.8390130270698</v>
+        <v>237.4472800274799</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.9015303660871</v>
+        <v>324.885843968122</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.2835597487859</v>
+        <v>293.8791950000468</v>
       </c>
       <c r="AD2" t="n">
-        <v>203839.0130270698</v>
+        <v>237447.2800274799</v>
       </c>
       <c r="AE2" t="n">
-        <v>278901.530366087</v>
+        <v>324885.843968122</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.326373691256555e-06</v>
+        <v>6.860976118184651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.681944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>252283.5597487859</v>
+        <v>293879.1950000467</v>
       </c>
     </row>
   </sheetData>
@@ -8955,28 +8955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.64966037544195</v>
+        <v>90.55997585418025</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3484233375394</v>
+        <v>123.9081541878044</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.81692468921776</v>
+        <v>112.0825338583395</v>
       </c>
       <c r="AD2" t="n">
-        <v>80649.66037544195</v>
+        <v>90559.97585418026</v>
       </c>
       <c r="AE2" t="n">
-        <v>110348.4233375394</v>
+        <v>123908.1541878044</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.788886572651638e-06</v>
+        <v>1.192780590167397e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.147222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>99816.92468921776</v>
+        <v>112082.5338583395</v>
       </c>
     </row>
     <row r="3">
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.527397001845</v>
+        <v>90.43771248058331</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.1811371959048</v>
+        <v>123.7408680461698</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.66560410215314</v>
+        <v>111.9312132712749</v>
       </c>
       <c r="AD3" t="n">
-        <v>80527.39700184501</v>
+        <v>90437.71248058332</v>
       </c>
       <c r="AE3" t="n">
-        <v>110181.1371959048</v>
+        <v>123740.8680461698</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.815967645990563e-06</v>
+        <v>1.197538627924236e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.134722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>99665.60410215314</v>
+        <v>111931.2132712749</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.00498032389817</v>
+        <v>89.43545301415739</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.41565836399838</v>
+        <v>122.3695324276395</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.40476044297031</v>
+        <v>110.6907559994951</v>
       </c>
       <c r="AD2" t="n">
-        <v>69004.98032389817</v>
+        <v>89435.45301415739</v>
       </c>
       <c r="AE2" t="n">
-        <v>94415.65836399837</v>
+        <v>122369.5324276395</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.056941948553005e-06</v>
+        <v>1.206658428950983e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.918055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>85404.76044297032</v>
+        <v>110690.7559994951</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.3845155696706</v>
+        <v>88.81498825992982</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.56671111429156</v>
+        <v>121.5205851779327</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.63683552727032</v>
+        <v>109.9228310837951</v>
       </c>
       <c r="AD3" t="n">
-        <v>68384.51556967059</v>
+        <v>88814.98825992981</v>
       </c>
       <c r="AE3" t="n">
-        <v>93566.71111429157</v>
+        <v>121520.5851779327</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.126334074281516e-06</v>
+        <v>1.218523709128086e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.890277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>84636.83552727032</v>
+        <v>109922.8310837951</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.2021748575906</v>
+        <v>348.9444048035025</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.7498596253976</v>
+        <v>477.441128992815</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.5484695137976</v>
+        <v>431.874817734573</v>
       </c>
       <c r="AD2" t="n">
-        <v>300202.1748575906</v>
+        <v>348944.4048035025</v>
       </c>
       <c r="AE2" t="n">
-        <v>410749.8596253975</v>
+        <v>477441.128992815</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.436981126568171e-06</v>
+        <v>5.223573004497148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.85833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>371548.4695137976</v>
+        <v>431874.817734573</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.43452941715357</v>
+        <v>108.1910173673121</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.3682687214726</v>
+        <v>148.0317230127146</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6896128996712</v>
+        <v>133.9037831322495</v>
       </c>
       <c r="AD2" t="n">
-        <v>89434.52941715356</v>
+        <v>108191.0173673121</v>
       </c>
       <c r="AE2" t="n">
-        <v>122368.2687214726</v>
+        <v>148031.7230127146</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.962726876542755e-06</v>
+        <v>1.098592199528158e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.804166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>110689.6128996712</v>
+        <v>133903.7831322495</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.60957425064612</v>
+        <v>101.8665105318584</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.0300639668902</v>
+        <v>139.3782537429017</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.2426333006104</v>
+        <v>126.0761888243244</v>
       </c>
       <c r="AD2" t="n">
-        <v>82609.57425064612</v>
+        <v>101866.5105318584</v>
       </c>
       <c r="AE2" t="n">
-        <v>113030.0639668902</v>
+        <v>139378.2537429017</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.550210116243937e-06</v>
+        <v>1.170147234959811e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>102242.6333006104</v>
+        <v>126076.1888243244</v>
       </c>
     </row>
   </sheetData>
